--- a/Docs/TradeWeb Parameters.xlsx
+++ b/Docs/TradeWeb Parameters.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="113">
   <si>
     <t>API Name</t>
   </si>
@@ -188,13 +189,178 @@
   </si>
   <si>
     <t>}</t>
+  </si>
+  <si>
+    <t>Parameter Name</t>
+  </si>
+  <si>
+    <t>Json Type</t>
+  </si>
+  <si>
+    <t>From Date</t>
+  </si>
+  <si>
+    <t>To Date</t>
+  </si>
+  <si>
+    <t>divDate</t>
+  </si>
+  <si>
+    <t>Divident Date</t>
+  </si>
+  <si>
+    <t>scripName</t>
+  </si>
+  <si>
+    <t>Script Code</t>
+  </si>
+  <si>
+    <t>Script Name</t>
+  </si>
+  <si>
+    <t>qty</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Section 112 A</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>isin</t>
+  </si>
+  <si>
+    <t>International Securities Identification Number</t>
+  </si>
+  <si>
+    <t>Net Rate</t>
+  </si>
+  <si>
+    <t>Service Tax</t>
+  </si>
+  <si>
+    <t>Other Charge 1</t>
+  </si>
+  <si>
+    <t>Other Charge 2</t>
+  </si>
+  <si>
+    <t>Settlment</t>
+  </si>
+  <si>
+    <t>bQty</t>
+  </si>
+  <si>
+    <t>Buy Quantity</t>
+  </si>
+  <si>
+    <t>bAmount</t>
+  </si>
+  <si>
+    <t>Buy Amount</t>
+  </si>
+  <si>
+    <t>sQty</t>
+  </si>
+  <si>
+    <t>sAmount</t>
+  </si>
+  <si>
+    <t>Sell Quantity</t>
+  </si>
+  <si>
+    <t>Sell Amount</t>
+  </si>
+  <si>
+    <t>netQty</t>
+  </si>
+  <si>
+    <t>Net Quantity</t>
+  </si>
+  <si>
+    <t>stokeAtCost</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>sortTerm</t>
+  </si>
+  <si>
+    <t>Sort Term</t>
+  </si>
+  <si>
+    <t>longTerm</t>
+  </si>
+  <si>
+    <t>LongTerm</t>
+  </si>
+  <si>
+    <t>marketRate</t>
+  </si>
+  <si>
+    <t>Market Rate</t>
+  </si>
+  <si>
+    <t>stokeAtMkt</t>
+  </si>
+  <si>
+    <t>Stoke At Market</t>
+  </si>
+  <si>
+    <t>unRealGain</t>
+  </si>
+  <si>
+    <t>qtrSlab</t>
+  </si>
+  <si>
+    <t>itcg</t>
+  </si>
+  <si>
+    <t>rate112A</t>
+  </si>
+  <si>
+    <t>Series No</t>
+  </si>
+  <si>
+    <t>srNo</t>
+  </si>
+  <si>
+    <t>trxFlag</t>
+  </si>
+  <si>
+    <t>trdType</t>
+  </si>
+  <si>
+    <t>Trade Type</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>bsFlag</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,8 +388,15 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,6 +406,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -273,14 +452,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -599,30 +784,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -637,7 +822,7 @@
       <c r="D4" s="1">
         <v>20200401</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -653,7 +838,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
@@ -665,7 +850,7 @@
       <c r="D7" s="1">
         <v>20200401</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -731,13 +916,13 @@
       <c r="B14" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="1">
         <v>20200401</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -745,7 +930,7 @@
       <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="1">
@@ -756,7 +941,7 @@
       <c r="B16" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -767,7 +952,7 @@
       <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -778,7 +963,7 @@
       <c r="B18" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="1">
@@ -786,19 +971,19 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="1">
         <v>20200401</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -806,7 +991,7 @@
       <c r="B21" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="1">
@@ -814,19 +999,19 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="1">
         <v>20200401</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="6" t="s">
         <v>43</v>
       </c>
     </row>
@@ -834,7 +1019,7 @@
       <c r="B24" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="1">
@@ -845,7 +1030,7 @@
       <c r="B25" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="1">
@@ -853,16 +1038,16 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="6">
+      <c r="C27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="5">
         <v>20220228</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -870,11 +1055,11 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
+      <c r="A28" s="4"/>
       <c r="B28" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="1">
@@ -882,11 +1067,11 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
+      <c r="A29" s="4"/>
       <c r="B29" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D29" s="1">
@@ -894,11 +1079,11 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
+      <c r="A30" s="4"/>
       <c r="B30" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D30" s="1">
@@ -909,11 +1094,11 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
+      <c r="A31" s="4"/>
       <c r="B31" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D31" s="1">
@@ -924,11 +1109,11 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
+      <c r="A32" s="4"/>
       <c r="B32" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="1">
@@ -939,11 +1124,11 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
+      <c r="A33" s="4"/>
       <c r="B33" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="1">
@@ -954,11 +1139,11 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
+      <c r="A34" s="4"/>
       <c r="B34" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D34" s="1">
@@ -969,11 +1154,11 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
+      <c r="A35" s="4"/>
       <c r="B35" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -984,11 +1169,11 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
+      <c r="A36" s="4"/>
       <c r="B36" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -999,11 +1184,11 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
+      <c r="A37" s="4"/>
       <c r="B37" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -1051,4 +1236,368 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="44.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B24" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B27" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B28" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B29" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B30" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B31" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B32" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B33" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B34" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B35" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B36" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B37" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B38" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B39" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B40" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B41" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B42" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B43" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Docs/TradeWeb Parameters.xlsx
+++ b/Docs/TradeWeb Parameters.xlsx
@@ -4,18 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="58">
   <si>
     <t>API Name</t>
   </si>
@@ -189,178 +188,13 @@
   </si>
   <si>
     <t>}</t>
-  </si>
-  <si>
-    <t>Parameter Name</t>
-  </si>
-  <si>
-    <t>Json Type</t>
-  </si>
-  <si>
-    <t>From Date</t>
-  </si>
-  <si>
-    <t>To Date</t>
-  </si>
-  <si>
-    <t>divDate</t>
-  </si>
-  <si>
-    <t>Divident Date</t>
-  </si>
-  <si>
-    <t>scripName</t>
-  </si>
-  <si>
-    <t>Script Code</t>
-  </si>
-  <si>
-    <t>Script Name</t>
-  </si>
-  <si>
-    <t>qty</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>rate</t>
-  </si>
-  <si>
-    <t>Rate</t>
-  </si>
-  <si>
-    <t>amount</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Section 112 A</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>isin</t>
-  </si>
-  <si>
-    <t>International Securities Identification Number</t>
-  </si>
-  <si>
-    <t>Net Rate</t>
-  </si>
-  <si>
-    <t>Service Tax</t>
-  </si>
-  <si>
-    <t>Other Charge 1</t>
-  </si>
-  <si>
-    <t>Other Charge 2</t>
-  </si>
-  <si>
-    <t>Settlment</t>
-  </si>
-  <si>
-    <t>bQty</t>
-  </si>
-  <si>
-    <t>Buy Quantity</t>
-  </si>
-  <si>
-    <t>bAmount</t>
-  </si>
-  <si>
-    <t>Buy Amount</t>
-  </si>
-  <si>
-    <t>sQty</t>
-  </si>
-  <si>
-    <t>sAmount</t>
-  </si>
-  <si>
-    <t>Sell Quantity</t>
-  </si>
-  <si>
-    <t>Sell Amount</t>
-  </si>
-  <si>
-    <t>netQty</t>
-  </si>
-  <si>
-    <t>Net Quantity</t>
-  </si>
-  <si>
-    <t>stokeAtCost</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>sortTerm</t>
-  </si>
-  <si>
-    <t>Sort Term</t>
-  </si>
-  <si>
-    <t>longTerm</t>
-  </si>
-  <si>
-    <t>LongTerm</t>
-  </si>
-  <si>
-    <t>marketRate</t>
-  </si>
-  <si>
-    <t>Market Rate</t>
-  </si>
-  <si>
-    <t>stokeAtMkt</t>
-  </si>
-  <si>
-    <t>Stoke At Market</t>
-  </si>
-  <si>
-    <t>unRealGain</t>
-  </si>
-  <si>
-    <t>qtrSlab</t>
-  </si>
-  <si>
-    <t>itcg</t>
-  </si>
-  <si>
-    <t>rate112A</t>
-  </si>
-  <si>
-    <t>Series No</t>
-  </si>
-  <si>
-    <t>srNo</t>
-  </si>
-  <si>
-    <t>trxFlag</t>
-  </si>
-  <si>
-    <t>trdType</t>
-  </si>
-  <si>
-    <t>Trade Type</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>bsFlag</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,15 +222,8 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -406,12 +233,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -452,20 +273,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -772,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -784,30 +599,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -822,7 +637,7 @@
       <c r="D4" s="1">
         <v>20200401</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>39</v>
       </c>
     </row>
@@ -838,7 +653,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
@@ -850,7 +665,7 @@
       <c r="D7" s="1">
         <v>20200401</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -916,13 +731,13 @@
       <c r="B14" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="1">
         <v>20200401</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="7" t="s">
         <v>41</v>
       </c>
     </row>
@@ -930,7 +745,7 @@
       <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="1">
@@ -941,7 +756,7 @@
       <c r="B16" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -952,7 +767,7 @@
       <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -963,7 +778,7 @@
       <c r="B18" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="1">
@@ -971,19 +786,19 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="1">
         <v>20200401</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -991,7 +806,7 @@
       <c r="B21" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="1">
@@ -999,19 +814,19 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="1">
         <v>20200401</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="7" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1019,7 +834,7 @@
       <c r="B24" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="1">
@@ -1030,7 +845,7 @@
       <c r="B25" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="1">
@@ -1038,16 +853,16 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="5">
+      <c r="C27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="6">
         <v>20220228</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -1055,11 +870,11 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
+      <c r="A28" s="5"/>
       <c r="B28" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="1">
@@ -1067,11 +882,11 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
+      <c r="A29" s="5"/>
       <c r="B29" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D29" s="1">
@@ -1079,11 +894,11 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
+      <c r="A30" s="5"/>
       <c r="B30" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D30" s="1">
@@ -1094,11 +909,11 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
+      <c r="A31" s="5"/>
       <c r="B31" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D31" s="1">
@@ -1109,11 +924,11 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
+      <c r="A32" s="5"/>
       <c r="B32" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="1">
@@ -1124,11 +939,11 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
+      <c r="A33" s="5"/>
       <c r="B33" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="1">
@@ -1139,11 +954,11 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
+      <c r="A34" s="5"/>
       <c r="B34" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D34" s="1">
@@ -1154,11 +969,11 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
+      <c r="A35" s="5"/>
       <c r="B35" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -1169,11 +984,11 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
+      <c r="A36" s="5"/>
       <c r="B36" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -1184,11 +999,11 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
+      <c r="A37" s="5"/>
       <c r="B37" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -1236,368 +1051,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H43"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="14.5546875" customWidth="1"/>
-    <col min="3" max="3" width="44.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="B1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B14" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B15" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B18" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B20" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B21" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B22" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B23" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B24" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B25" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B27" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B28" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B29" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B30" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B31" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B32" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B33" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B34" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B35" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B36" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B37" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B38" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B39" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B40" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B41" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B42" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B43" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>